--- a/genshin/493759765456947698_2021-02-20_14-00-04.xlsx
+++ b/genshin/493759765456947698_2021-02-20_14-00-04.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4154915829</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-02-27 14:06:17</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44254.58769675926</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -610,10 +624,8 @@
           <t>4177450444</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-02-24 16:59:49</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44251.70820601852</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -682,10 +694,8 @@
           <t>4172616441</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-02-24 08:09:31</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44251.33994212963</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -753,10 +763,8 @@
           <t>4172616441</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:04:21</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44250.83635416667</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -833,10 +841,8 @@
           <t>4172616441</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-02-23 20:03:08</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44250.83550925926</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -913,10 +919,8 @@
           <t>4172616441</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-02-23 19:29:44</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44250.81231481482</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -985,10 +989,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-02-23 17:50:15</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44250.74322916667</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1056,10 +1058,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-02-23 17:44:49</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44250.73945601852</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1127,10 +1127,8 @@
           <t>4169672389</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-02-23 08:59:49</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44250.37487268518</v>
       </c>
       <c r="I10" t="n">
         <v>3</v>
@@ -1205,10 +1203,8 @@
           <t>4169654391</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-02-23 08:56:20</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44250.37245370371</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1284,10 +1280,8 @@
           <t>4155146084</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-02-23 08:55:59</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44250.37221064815</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1355,10 +1349,8 @@
           <t>4168874567</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-02-23 07:52:06</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44250.32784722222</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1423,10 +1415,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-02-23 03:11:17</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44250.13283564815</v>
       </c>
       <c r="I14" t="n">
         <v>2</v>
@@ -1498,10 +1488,8 @@
           <t>4168874567</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-02-23 00:37:51</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44250.02628472223</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1572,10 +1560,8 @@
           <t>4168646326</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-02-22 23:48:38</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44249.99210648148</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1647,10 +1633,8 @@
           <t>4156477999</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-02-22 23:33:36</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44249.98166666667</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1710,10 +1694,8 @@
           <t>4156477999</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-02-22 23:29:18</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44249.97868055556</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1792,10 +1774,8 @@
           <t>4155143159</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-02-22 22:43:22</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44249.94678240741</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1866,10 +1846,8 @@
           <t>4167181352</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-02-22 19:48:16</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44249.82518518518</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1933,10 +1911,8 @@
           <t>4159511384</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-02-21 21:20:00</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44248.88888888889</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2004,10 +1980,8 @@
           <t>4156477999</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-02-21 18:22:26</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44248.7655787037</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2067,10 +2041,8 @@
           <t>4156477999</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-02-21 18:22:07</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44248.7653587963</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2130,10 +2102,8 @@
           <t>4156477999</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-02-21 18:20:37</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44248.76431712963</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2205,10 +2175,8 @@
           <t>4154699207</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-02-21 16:47:06</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44248.699375</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2272,10 +2240,8 @@
           <t>4160775013</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-02-21 16:46:13</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44248.69876157407</v>
       </c>
       <c r="I26" t="n">
         <v>16</v>
@@ -2347,10 +2313,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-02-21 16:21:15</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44248.68142361111</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2426,10 +2390,8 @@
           <t>4154647066</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-02-21 15:58:20</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44248.66550925926</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2497,10 +2459,8 @@
           <t>4154266756</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-02-21 13:35:42</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44248.56645833333</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
@@ -2571,10 +2531,8 @@
           <t>4154266756</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-02-21 12:59:03</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44248.54100694445</v>
       </c>
       <c r="I30" t="n">
         <v>2</v>
@@ -2643,10 +2601,8 @@
           <t>4159524376</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-02-21 12:25:31</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44248.51771990741</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
@@ -2735,10 +2691,8 @@
           <t>4159530530</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-02-21 12:25:09</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44248.51746527778</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
@@ -2818,10 +2772,8 @@
           <t>4159517802</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-02-21 12:23:38</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44248.51641203704</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2885,10 +2837,8 @@
           <t>4159512937</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-02-21 12:23:21</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44248.51621527778</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2952,10 +2902,8 @@
           <t>4159511384</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-02-21 12:22:33</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44248.51565972222</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3019,10 +2967,8 @@
           <t>4159507800</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-02-21 12:22:00</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44248.51527777778</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3086,10 +3032,8 @@
           <t>4159497583</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-02-21 12:20:46</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44248.5144212963</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
@@ -3153,10 +3097,8 @@
           <t>4159501027</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-02-21 12:19:52</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44248.5137962963</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
@@ -3220,10 +3162,8 @@
           <t>4159483921</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-02-21 12:18:45</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44248.51302083334</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3304,10 +3244,8 @@
           <t>4159475028</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-02-21 12:15:17</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44248.51061342593</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3371,10 +3309,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-02-21 12:02:55</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44248.50202546296</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3438,10 +3374,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-02-21 11:59:56</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44248.4999537037</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3505,10 +3439,8 @@
           <t>4156400106</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-02-21 11:49:01</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44248.49237268518</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3580,10 +3512,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-02-21 11:17:09</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44248.47024305556</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
@@ -3663,10 +3593,8 @@
           <t>4154757198</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-02-21 10:59:20</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44248.45787037037</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3734,10 +3662,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-02-21 10:50:03</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44248.45142361111</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3826,10 +3752,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-02-21 10:42:10</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44248.44594907408</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -3900,10 +3824,8 @@
           <t>4158975498</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-02-21 10:35:37</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44248.44140046297</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -3967,10 +3889,8 @@
           <t>4158925408</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-02-21 10:25:10</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44248.43414351852</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4050,10 +3970,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-02-21 08:45:31</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44248.36494212963</v>
       </c>
       <c r="I50" t="n">
         <v>11</v>
@@ -4125,10 +4043,8 @@
           <t>4158507972</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-02-21 08:31:09</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44248.35496527778</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -4204,10 +4120,8 @@
           <t>4157476212</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-02-21 07:56:10</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44248.33067129629</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
@@ -4271,10 +4185,8 @@
           <t>4154047170</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-02-21 07:08:07</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44248.29730324074</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4346,10 +4258,8 @@
           <t>4158366029</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-02-21 07:07:34</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44248.2969212963</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4421,10 +4331,8 @@
           <t>4158316478</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-02-21 06:05:05</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44248.2535300926</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4496,10 +4404,8 @@
           <t>4158303620</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-02-21 05:49:42</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44248.24284722222</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4575,10 +4481,8 @@
           <t>4158200598</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-02-21 03:35:42</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44248.14979166666</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4646,10 +4550,8 @@
           <t>4157476212</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-02-21 00:48:55</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44248.03396990741</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
@@ -4717,10 +4619,8 @@
           <t>4157476212</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-02-21 00:44:37</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44248.0309837963</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
@@ -4788,10 +4688,8 @@
           <t>4157476212</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-02-21 00:36:54</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44248.025625</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
@@ -4859,10 +4757,8 @@
           <t>4154757198</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-02-21 00:05:03</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44248.00350694444</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4930,10 +4826,8 @@
           <t>4155146084</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-02-20 23:54:14</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44247.99599537037</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5005,10 +4899,8 @@
           <t>4157476212</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-02-20 23:50:31</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44247.99341435185</v>
       </c>
       <c r="I63" t="n">
         <v>2</v>
@@ -5083,10 +4975,8 @@
           <t>4157392392</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-02-20 23:36:42</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44247.98381944445</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5154,10 +5044,8 @@
           <t>4157304162</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-02-20 23:23:39</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44247.97475694444</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5221,10 +5109,8 @@
           <t>4155146084</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-02-20 23:15:24</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44247.96902777778</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5292,10 +5178,8 @@
           <t>4157174329</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-02-20 23:04:29</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44247.96144675926</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5367,10 +5251,8 @@
           <t>4156935289</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-02-20 22:27:22</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44247.9356712963</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5450,10 +5332,8 @@
           <t>4156783912</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-02-20 22:05:31</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44247.92049768518</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5524,10 +5404,8 @@
           <t>4156774386</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-02-20 22:04:43</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44247.91994212963</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5595,10 +5473,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-02-20 21:47:07</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44247.90771990741</v>
       </c>
       <c r="I71" t="n">
         <v>95</v>
@@ -5662,10 +5538,8 @@
           <t>4154919006</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-02-20 21:40:07</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44247.9028587963</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
@@ -5741,10 +5615,8 @@
           <t>4156477999</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-02-20 21:36:02</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44247.90002314815</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5804,10 +5676,8 @@
           <t>4154266756</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-02-20 21:35:39</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44247.89975694445</v>
       </c>
       <c r="I74" t="n">
         <v>2</v>
@@ -5875,10 +5745,8 @@
           <t>4156579255</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-02-20 21:33:43</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44247.89841435185</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5946,10 +5814,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-02-20 21:26:49</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44247.89362268519</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6013,10 +5879,8 @@
           <t>4156477999</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-02-20 21:16:17</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44247.88630787037</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6088,10 +5952,8 @@
           <t>4156438014</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-02-20 21:10:20</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44247.88217592592</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6170,10 +6032,8 @@
           <t>4156412941</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-02-20 21:05:46</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44247.87900462963</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6245,10 +6105,8 @@
           <t>4156400106</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-02-20 21:02:49</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44247.87695601852</v>
       </c>
       <c r="I80" t="n">
         <v>8</v>
@@ -6328,10 +6186,8 @@
           <t>4156277523</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-02-20 20:44:16</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44247.86407407407</v>
       </c>
       <c r="I81" t="n">
         <v>5</v>
@@ -6395,10 +6251,8 @@
           <t>4156229683</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-02-20 20:35:51</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44247.85822916667</v>
       </c>
       <c r="I82" t="n">
         <v>1</v>
@@ -6466,10 +6320,8 @@
           <t>4154266756</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-02-20 20:32:11</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44247.85568287037</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6541,10 +6393,8 @@
           <t>4156147376</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-02-20 20:22:17</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44247.84880787037</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6615,10 +6465,8 @@
           <t>4156135926</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-02-20 20:19:50</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44247.84710648148</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6689,10 +6537,8 @@
           <t>4156132098</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-02-20 20:19:41</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44247.84700231482</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6765,10 +6611,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-02-20 20:15:33</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44247.84413194445</v>
       </c>
       <c r="I87" t="n">
         <v>30</v>
@@ -6828,10 +6672,8 @@
           <t>4156087367</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-02-20 20:12:28</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44247.84199074074</v>
       </c>
       <c r="I88" t="n">
         <v>5</v>
@@ -6891,10 +6733,8 @@
           <t>4156067135</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-02-20 20:09:11</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44247.83971064815</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6958,10 +6798,8 @@
           <t>4155146084</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-02-20 20:01:33</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44247.83440972222</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7037,10 +6875,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-02-20 20:00:07</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44247.83341435185</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7104,10 +6940,8 @@
           <t>4154165845</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-02-20 19:56:25</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44247.83084490741</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7175,10 +7009,8 @@
           <t>4155966059</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-02-20 19:52:28</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44247.82810185185</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7238,10 +7070,8 @@
           <t>4154647066</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-02-20 19:47:12</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44247.82444444444</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7301,10 +7131,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-02-20 19:45:50</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44247.82349537037</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7376,10 +7204,8 @@
           <t>4155901775</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-02-20 19:42:26</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44247.82113425926</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7446,10 +7272,8 @@
           <t>4155827420</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-02-20 19:31:11</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44247.81332175926</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
@@ -7525,10 +7349,8 @@
           <t>4154074591</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-02-20 19:28:55</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44247.81174768518</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7594,10 +7416,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-02-20 19:27:02</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44247.81043981481</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7661,10 +7481,8 @@
           <t>4155781259</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-02-20 19:23:39</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44247.80809027778</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7728,10 +7546,8 @@
           <t>4155769525</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-02-20 19:22:51</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44247.80753472223</v>
       </c>
       <c r="I101" t="n">
         <v>3</v>
@@ -7807,10 +7623,8 @@
           <t>4154543590</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-02-20 19:10:26</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44247.79891203704</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
@@ -7878,10 +7692,8 @@
           <t>4155697366</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-02-20 19:10:13</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44247.79876157407</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7953,10 +7765,8 @@
           <t>4155684228</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-02-20 19:08:43</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44247.79771990741</v>
       </c>
       <c r="I104" t="n">
         <v>3</v>
@@ -8027,10 +7837,8 @@
           <t>4155675629</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-02-20 19:06:35</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44247.79623842592</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
@@ -8098,10 +7906,8 @@
           <t>4154074591</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-02-20 19:05:58</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44247.79581018518</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8177,10 +7983,8 @@
           <t>4154647066</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-02-20 19:00:42</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44247.79215277778</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8248,10 +8052,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-02-20 18:59:13</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44247.79112268519</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8331,10 +8133,8 @@
           <t>4155601281</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-02-20 18:54:45</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44247.78802083333</v>
       </c>
       <c r="I109" t="n">
         <v>1</v>
@@ -8406,10 +8206,8 @@
           <t>4155592169</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-02-20 18:53:50</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44247.78738425926</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8473,10 +8271,8 @@
           <t>4155581019</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-02-20 18:51:49</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44247.7859837963</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8544,10 +8340,8 @@
           <t>4155570227</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-02-20 18:49:24</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44247.78430555556</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -8622,10 +8416,8 @@
           <t>4155549831</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-02-20 18:48:04</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44247.78337962963</v>
       </c>
       <c r="I113" t="n">
         <v>3</v>
@@ -8689,10 +8481,8 @@
           <t>4154772429</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-02-20 18:44:14</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44247.78071759259</v>
       </c>
       <c r="I114" t="n">
         <v>1</v>
@@ -8756,10 +8546,8 @@
           <t>4154322231</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-02-20 18:43:55</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44247.78049768518</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8830,10 +8618,8 @@
           <t>4155507493</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-02-20 18:40:33</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44247.77815972222</v>
       </c>
       <c r="I116" t="n">
         <v>2</v>
@@ -8897,10 +8683,8 @@
           <t>4155464006</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-02-20 18:36:27</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44247.7753125</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8972,10 +8756,8 @@
           <t>4155464006</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-02-20 18:33:52</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44247.77351851852</v>
       </c>
       <c r="I118" t="n">
         <v>4</v>
@@ -9058,10 +8840,8 @@
           <t>4155413700</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-02-20 18:25:35</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44247.7677662037</v>
       </c>
       <c r="I119" t="n">
         <v>2</v>
@@ -9133,10 +8913,8 @@
           <t>4155411245</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-02-20 18:24:22</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44247.76692129629</v>
       </c>
       <c r="I120" t="n">
         <v>3</v>
@@ -9212,10 +8990,8 @@
           <t>4154647066</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-02-20 18:16:17</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44247.76130787037</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9275,10 +9051,8 @@
           <t>4154919006</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-02-20 18:10:36</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44247.75736111111</v>
       </c>
       <c r="I122" t="n">
         <v>1</v>
@@ -9347,10 +9121,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-02-20 18:06:27</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44247.75447916667</v>
       </c>
       <c r="I123" t="n">
         <v>1</v>
@@ -9422,10 +9194,8 @@
           <t>4154322231</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-02-20 18:03:55</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44247.75271990741</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9497,10 +9267,8 @@
           <t>4154772429</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-02-20 18:02:07</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44247.75146990741</v>
       </c>
       <c r="I125" t="n">
         <v>2</v>
@@ -9568,10 +9336,8 @@
           <t>4155209967</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-02-20 17:53:13</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44247.74528935185</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9635,10 +9401,8 @@
           <t>4154089760</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-02-20 17:52:43</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44247.74494212963</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9714,10 +9478,8 @@
           <t>4154089760</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-02-20 17:51:56</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44247.74439814815</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9785,10 +9547,8 @@
           <t>4154089760</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-02-20 17:50:47</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44247.74359953704</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9872,10 +9632,8 @@
           <t>4155200361</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-02-20 17:50:15</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44247.74322916667</v>
       </c>
       <c r="I130" t="n">
         <v>9</v>
@@ -9943,10 +9701,8 @@
           <t>4154915829</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-02-20 17:49:56</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44247.74300925926</v>
       </c>
       <c r="I131" t="n">
         <v>2</v>
@@ -10018,10 +9774,8 @@
           <t>4154165845</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-02-20 17:48:01</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44247.74167824074</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10097,10 +9851,8 @@
           <t>4155175909</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-02-20 17:46:03</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44247.7403125</v>
       </c>
       <c r="I133" t="n">
         <v>15</v>
@@ -10168,10 +9920,8 @@
           <t>4154647066</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-02-20 17:45:50</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44247.74016203704</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10250,10 +10000,8 @@
           <t>4155171925</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-02-20 17:45:49</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44247.74015046296</v>
       </c>
       <c r="I135" t="n">
         <v>4</v>
@@ -10325,10 +10073,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-02-20 17:45:46</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44247.74011574074</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
@@ -10403,10 +10149,8 @@
           <t>4155146084</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-02-20 17:42:08</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44247.7375925926</v>
       </c>
       <c r="I137" t="n">
         <v>14</v>
@@ -10478,10 +10222,8 @@
           <t>4154765445</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-02-20 17:41:07</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44247.73688657407</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10564,10 +10306,8 @@
           <t>4155143159</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-02-20 17:41:04</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44247.73685185185</v>
       </c>
       <c r="I139" t="n">
         <v>9</v>
@@ -10650,10 +10390,8 @@
           <t>4155146084</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-02-20 17:40:58</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44247.73678240741</v>
       </c>
       <c r="I140" t="n">
         <v>23</v>
@@ -10725,10 +10463,8 @@
           <t>4154175388</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-02-20 17:40:45</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44247.73663194444</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10796,10 +10532,8 @@
           <t>4154765445</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-02-20 17:40:39</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44247.7365625</v>
       </c>
       <c r="I142" t="n">
         <v>5</v>
@@ -10871,10 +10605,8 @@
           <t>4154089760</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-02-20 17:36:18</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44247.73354166667</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10942,10 +10674,8 @@
           <t>4154919006</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-02-20 17:35:40</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44247.73310185185</v>
       </c>
       <c r="I144" t="n">
         <v>1</v>
@@ -11013,10 +10743,8 @@
           <t>4154919006</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-02-20 17:35:25</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44247.73292824074</v>
       </c>
       <c r="I145" t="n">
         <v>4</v>
@@ -11092,10 +10820,8 @@
           <t>4154165845</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-02-20 17:33:35</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44247.73165509259</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11163,10 +10889,8 @@
           <t>4155097587</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-02-20 17:32:49</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44247.73112268518</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11241,10 +10965,8 @@
           <t>4155097255</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-02-20 17:32:39</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44247.73100694444</v>
       </c>
       <c r="I148" t="n">
         <v>20</v>
@@ -11312,10 +11034,8 @@
           <t>4155081301</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-02-20 17:29:33</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44247.72885416666</v>
       </c>
       <c r="I149" t="n">
         <v>2</v>
@@ -11383,10 +11103,8 @@
           <t>4155080073</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-02-20 17:28:53</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44247.7283912037</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11454,10 +11172,8 @@
           <t>4155065065</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-02-20 17:26:15</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44247.7265625</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11540,10 +11256,8 @@
           <t>4155054938</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-02-20 17:26:11</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44247.7265162037</v>
       </c>
       <c r="I152" t="n">
         <v>31</v>
@@ -11619,10 +11333,8 @@
           <t>4154165845</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-02-20 17:25:27</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44247.72600694445</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11690,10 +11402,8 @@
           <t>4154765445</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-02-20 17:24:35</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44247.72540509259</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11768,10 +11478,8 @@
           <t>4154165845</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-02-20 17:24:06</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44247.72506944444</v>
       </c>
       <c r="I155" t="n">
         <v>1</v>
@@ -11839,10 +11547,8 @@
           <t>4155031178</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-02-20 17:20:28</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44247.7225462963</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11922,10 +11628,8 @@
           <t>4155012534</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-02-20 17:17:25</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44247.72042824074</v>
       </c>
       <c r="I157" t="n">
         <v>48</v>
@@ -12007,10 +11711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-02-20 17:16:43</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44247.71994212963</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -12090,10 +11792,8 @@
           <t>4154990584</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-02-20 17:13:02</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44247.71738425926</v>
       </c>
       <c r="I159" t="n">
         <v>107</v>
@@ -12169,10 +11869,8 @@
           <t>4154983544</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-02-20 17:12:22</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44247.7169212963</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12240,10 +11938,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-02-20 17:12:10</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44247.71678240741</v>
       </c>
       <c r="I161" t="n">
         <v>1</v>
@@ -12319,10 +12015,8 @@
           <t>4154974173</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-02-20 17:11:21</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44247.71621527777</v>
       </c>
       <c r="I162" t="n">
         <v>52</v>
@@ -12386,10 +12080,8 @@
           <t>4154765445</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-02-20 17:09:59</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44247.7152662037</v>
       </c>
       <c r="I163" t="n">
         <v>1</v>
@@ -12457,10 +12149,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-02-20 17:07:41</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44247.71366898148</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12532,10 +12222,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-02-20 17:03:24</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44247.71069444445</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12607,10 +12295,8 @@
           <t>4154919006</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-02-20 17:01:15</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44247.70920138889</v>
       </c>
       <c r="I166" t="n">
         <v>51</v>
@@ -12678,10 +12364,8 @@
           <t>4154915829</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-02-20 16:59:28</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44247.70796296297</v>
       </c>
       <c r="I167" t="n">
         <v>7</v>
@@ -12749,10 +12433,8 @@
           <t>4154772429</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-02-20 16:58:45</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44247.70746527778</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12824,10 +12506,8 @@
           <t>4154074591</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-02-20 16:58:34</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44247.70733796297</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12895,10 +12575,8 @@
           <t>4154757198</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-02-20 16:57:44</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44247.70675925926</v>
       </c>
       <c r="I170" t="n">
         <v>1</v>
@@ -12966,10 +12644,8 @@
           <t>4154765445</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-02-20 16:54:43</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44247.70466435186</v>
       </c>
       <c r="I171" t="n">
         <v>1</v>
@@ -13045,10 +12721,8 @@
           <t>4154879435</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-02-20 16:53:07</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44247.70355324074</v>
       </c>
       <c r="I172" t="n">
         <v>1</v>
@@ -13124,10 +12798,8 @@
           <t>4154765445</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-02-20 16:49:44</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44247.70120370371</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13199,10 +12871,8 @@
           <t>4154165845</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-02-20 16:45:43</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44247.69841435185</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13278,10 +12948,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-02-20 16:41:15</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44247.6953125</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13349,10 +13017,8 @@
           <t>4154816251</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-02-20 16:39:59</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44247.69443287037</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13425,10 +13091,8 @@
           <t>4154806057</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-02-20 16:39:26</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44247.69405092593</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13496,10 +13160,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-02-20 16:36:03</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44247.69170138889</v>
       </c>
       <c r="I178" t="n">
         <v>1</v>
@@ -13563,10 +13225,8 @@
           <t>4154781907</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-02-20 16:34:39</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44247.69072916666</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13638,10 +13298,8 @@
           <t>4154699207</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-02-20 16:34:23</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44247.69054398148</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13709,10 +13367,8 @@
           <t>4154772429</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-02-20 16:32:27</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44247.68920138889</v>
       </c>
       <c r="I181" t="n">
         <v>1</v>
@@ -13772,10 +13428,8 @@
           <t>4154765445</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-02-20 16:31:01</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44247.68820601852</v>
       </c>
       <c r="I182" t="n">
         <v>2</v>
@@ -13835,10 +13489,8 @@
           <t>4154757198</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-02-20 16:29:35</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44247.68721064815</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13910,10 +13562,8 @@
           <t>4154165845</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-02-20 16:28:08</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44247.68620370371</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13985,10 +13635,8 @@
           <t>4154718330</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-02-20 16:23:22</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44247.68289351852</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -14060,10 +13708,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-02-20 16:20:31</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44247.68091435185</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14131,10 +13777,8 @@
           <t>4154699207</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-02-20 16:19:37</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44247.68028935185</v>
       </c>
       <c r="I187" t="n">
         <v>5</v>
@@ -14205,10 +13849,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-02-20 16:15:37</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44247.67751157407</v>
       </c>
       <c r="I188" t="n">
         <v>3</v>
@@ -14272,10 +13914,8 @@
           <t>4154314102</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-02-20 16:13:37</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44247.67612268519</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14343,10 +13983,8 @@
           <t>4154664812</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-02-20 16:13:30</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44247.67604166667</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14410,10 +14048,8 @@
           <t>4154670138</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-02-20 16:12:43</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44247.67549768519</v>
       </c>
       <c r="I191" t="n">
         <v>2</v>
@@ -14485,10 +14121,8 @@
           <t>4154647066</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-02-20 16:12:01</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44247.67501157407</v>
       </c>
       <c r="I192" t="n">
         <v>3</v>
@@ -14565,10 +14199,8 @@
           <t>4154449195</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-02-20 16:11:46</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44247.67483796296</v>
       </c>
       <c r="I193" t="n">
         <v>18</v>
@@ -14636,10 +14268,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-02-20 16:11:33</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44247.6746875</v>
       </c>
       <c r="I194" t="n">
         <v>467</v>
@@ -14707,10 +14337,8 @@
           <t>4154647066</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-02-20 16:09:03</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44247.67295138889</v>
       </c>
       <c r="I195" t="n">
         <v>16</v>
@@ -14770,10 +14398,8 @@
           <t>4154650111</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-02-20 16:08:39</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44247.67267361111</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14833,10 +14459,8 @@
           <t>4154640421</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-02-20 16:06:52</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44247.67143518518</v>
       </c>
       <c r="I197" t="n">
         <v>1</v>
@@ -14904,10 +14528,8 @@
           <t>4154609616</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-02-20 16:02:45</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44247.66857638889</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14979,10 +14601,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:57:59</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44247.6652662037</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15046,10 +14666,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:57:58</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44247.66525462963</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15125,10 +14743,8 @@
           <t>4154069754</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:57:39</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44247.66503472222</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15192,10 +14808,8 @@
           <t>4154590419</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:57:38</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44247.66502314815</v>
       </c>
       <c r="I202" t="n">
         <v>57</v>
@@ -15271,10 +14885,8 @@
           <t>4154104620</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:55:00</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44247.66319444445</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15342,10 +14954,8 @@
           <t>4154563562</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:53:31</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44247.66216435185</v>
       </c>
       <c r="I204" t="n">
         <v>1</v>
@@ -15419,10 +15029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:52:53</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44247.66172453704</v>
       </c>
       <c r="I205" t="n">
         <v>18</v>
@@ -15501,10 +15109,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:50:08</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44247.65981481481</v>
       </c>
       <c r="I206" t="n">
         <v>36</v>
@@ -15580,10 +15186,8 @@
           <t>4154543590</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:49:26</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44247.6593287037</v>
       </c>
       <c r="I207" t="n">
         <v>1</v>
@@ -15651,10 +15255,8 @@
           <t>4154543356</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:49:18</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44247.65923611111</v>
       </c>
       <c r="I208" t="n">
         <v>4</v>
@@ -15715,10 +15317,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:48:21</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44247.65857638889</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15794,10 +15394,8 @@
           <t>4154533038</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:47:28</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44247.65796296296</v>
       </c>
       <c r="I210" t="n">
         <v>1</v>
@@ -15865,10 +15463,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:42:23</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44247.65443287037</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15932,10 +15528,8 @@
           <t>4154511775</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:42:16</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44247.65435185185</v>
       </c>
       <c r="I212" t="n">
         <v>10</v>
@@ -16003,10 +15597,8 @@
           <t>4154074591</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:41:30</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44247.65381944444</v>
       </c>
       <c r="I213" t="n">
         <v>1</v>
@@ -16070,10 +15662,8 @@
           <t>4154484947</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:38:04</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44247.65143518519</v>
       </c>
       <c r="I214" t="n">
         <v>1</v>
@@ -16137,10 +15727,8 @@
           <t>4154449195</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:35:23</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44247.64957175926</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16211,10 +15799,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:32:56</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44247.64787037037</v>
       </c>
       <c r="I216" t="n">
         <v>28</v>
@@ -16290,10 +15876,8 @@
           <t>4154449195</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:31:51</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44247.64711805555</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16372,10 +15956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:30:41</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44247.64630787037</v>
       </c>
       <c r="I218" t="n">
         <v>9</v>
@@ -16443,10 +16025,8 @@
           <t>4154455380</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:30:18</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44247.64604166667</v>
       </c>
       <c r="I219" t="n">
         <v>1</v>
@@ -16516,10 +16096,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:30:05</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44247.64589120371</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16583,10 +16161,8 @@
           <t>4154449195</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:30:04</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44247.64587962963</v>
       </c>
       <c r="I221" t="n">
         <v>59</v>
@@ -16665,10 +16241,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:29:35</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44247.64554398148</v>
       </c>
       <c r="I222" t="n">
         <v>312</v>
@@ -16745,10 +16319,8 @@
           <t>4154446278</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:28:20</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44247.64467592593</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16812,10 +16384,8 @@
           <t>4154266756</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:26:48</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44247.64361111111</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16883,10 +16453,8 @@
           <t>4154429208</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:26:29</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44247.6433912037</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16962,10 +16530,8 @@
           <t>4154428679</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:26:08</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44247.64314814815</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -17033,10 +16599,8 @@
           <t>4154428163</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:25:47</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44247.64290509259</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17104,10 +16668,8 @@
           <t>4154200984</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:25:24</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44247.64263888889</v>
       </c>
       <c r="I228" t="n">
         <v>3</v>
@@ -17179,10 +16741,8 @@
           <t>4154426823</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:24:55</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44247.64230324074</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17257,10 +16817,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:24:27</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44247.64197916666</v>
       </c>
       <c r="I230" t="n">
         <v>47</v>
@@ -17320,10 +16878,8 @@
           <t>4154089760</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:24:10</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44247.64178240741</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17399,10 +16955,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:22:56</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44247.64092592592</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17474,10 +17028,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:18:51</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44247.63809027777</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17550,10 +17102,8 @@
           <t>4154389414</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:17:59</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44247.63748842593</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17629,10 +17179,8 @@
           <t>4154390071</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:16:22</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44247.63636574074</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17696,10 +17244,8 @@
           <t>4154367763</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:12:48</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44247.63388888889</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17771,10 +17317,8 @@
           <t>4154363556</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:12:23</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44247.63359953704</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17850,10 +17394,8 @@
           <t>4154363456</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:12:19</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44247.63355324074</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17925,10 +17467,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:07:50</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44247.63043981481</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -18000,10 +17540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:07:32</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44247.63023148148</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -18067,10 +17605,8 @@
           <t>4154322231</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:06:46</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44247.62969907407</v>
       </c>
       <c r="I241" t="n">
         <v>3</v>
@@ -18134,10 +17670,8 @@
           <t>4154165845</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:06:27</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44247.62947916667</v>
       </c>
       <c r="I242" t="n">
         <v>1</v>
@@ -18205,10 +17739,8 @@
           <t>4154165845</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:05:47</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44247.6290162037</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18284,10 +17816,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:04:59</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44247.62846064815</v>
       </c>
       <c r="I244" t="n">
         <v>1</v>
@@ -18355,10 +17885,8 @@
           <t>4154322231</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:02:28</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44247.62671296296</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18430,10 +17958,8 @@
           <t>4154314102</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:02:09</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44247.62649305556</v>
       </c>
       <c r="I246" t="n">
         <v>3</v>
@@ -18505,10 +18031,8 @@
           <t>4154165845</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:01:28</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44247.62601851852</v>
       </c>
       <c r="I247" t="n">
         <v>4</v>
@@ -18580,10 +18104,8 @@
           <t>4154308995</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-02-20 15:00:24</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44247.62527777778</v>
       </c>
       <c r="I248" t="n">
         <v>4</v>
@@ -18655,10 +18177,8 @@
           <t>4154298764</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:58:53</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44247.62422453704</v>
       </c>
       <c r="I249" t="n">
         <v>1</v>
@@ -18735,10 +18255,8 @@
           <t>4154266756</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:58:52</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44247.62421296296</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18806,10 +18324,8 @@
           <t>4154302299</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:58:44</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44247.62412037037</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18877,10 +18393,8 @@
           <t>4154306161</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:58:32</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44247.62398148148</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18951,10 +18465,8 @@
           <t>4154165845</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:57:45</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44247.6234375</v>
       </c>
       <c r="I253" t="n">
         <v>3</v>
@@ -19022,10 +18534,8 @@
           <t>4154266756</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:57:28</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44247.62324074074</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19097,10 +18607,8 @@
           <t>4154072277</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:57:25</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44247.62320601852</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19164,10 +18672,8 @@
           <t>4154289085</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:56:41</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44247.62269675926</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19235,10 +18741,8 @@
           <t>4154276784</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:56:18</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44247.62243055556</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19314,10 +18818,8 @@
           <t>4154281804</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:54:36</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44247.62125</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19381,10 +18883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:53:20</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44247.62037037037</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19460,10 +18960,8 @@
           <t>4154273572</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:53:13</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44247.62028935185</v>
       </c>
       <c r="I260" t="n">
         <v>3</v>
@@ -19527,10 +19025,8 @@
           <t>4154276784</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:52:27</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44247.61975694444</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19598,10 +19094,8 @@
           <t>4154074591</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:51:48</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44247.61930555556</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19669,10 +19163,8 @@
           <t>4154165845</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:51:32</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44247.61912037037</v>
       </c>
       <c r="I263" t="n">
         <v>2</v>
@@ -19732,10 +19224,8 @@
           <t>4154266756</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:51:31</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44247.61910879629</v>
       </c>
       <c r="I264" t="n">
         <v>1</v>
@@ -19803,10 +19293,8 @@
           <t>4154165845</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:49:34</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44247.61775462963</v>
       </c>
       <c r="I265" t="n">
         <v>1</v>
@@ -19874,10 +19362,8 @@
           <t>4154256818</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:48:52</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44247.61726851852</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19942,10 +19428,8 @@
           <t>4154261128</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:48:49</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44247.6172337963</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -20017,10 +19501,8 @@
           <t>4154148769</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:47:48</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44247.61652777778</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20096,10 +19578,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:47:37</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44247.61640046296</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20175,10 +19655,8 @@
           <t>4154165845</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:47:31</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44247.61633101852</v>
       </c>
       <c r="I270" t="n">
         <v>1</v>
@@ -20254,10 +19732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:46:54</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44247.61590277778</v>
       </c>
       <c r="I271" t="n">
         <v>7</v>
@@ -20329,10 +19805,8 @@
           <t>4154200984</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:45:19</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44247.61480324074</v>
       </c>
       <c r="I272" t="n">
         <v>21</v>
@@ -20408,10 +19882,8 @@
           <t>4154072277</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:45:03</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44247.61461805556</v>
       </c>
       <c r="I273" t="n">
         <v>2</v>
@@ -20487,10 +19959,8 @@
           <t>4154240303</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:44:43</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44247.61438657407</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20558,10 +20028,8 @@
           <t>4154234341</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:44:28</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44247.61421296297</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20637,10 +20105,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:44:15</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44247.6140625</v>
       </c>
       <c r="I276" t="n">
         <v>344</v>
@@ -20708,10 +20174,8 @@
           <t>4154233773</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:44:06</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44247.61395833334</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20779,10 +20243,8 @@
           <t>4154074591</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:42:07</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44247.61258101852</v>
       </c>
       <c r="I278" t="n">
         <v>9</v>
@@ -20846,10 +20308,8 @@
           <t>4154221226</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:41:57</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44247.61246527778</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20917,10 +20377,8 @@
           <t>4154198032</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:36:57</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44247.60899305555</v>
       </c>
       <c r="I280" t="n">
         <v>1</v>
@@ -20980,10 +20438,8 @@
           <t>4154165845</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:36:46</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44247.60886574074</v>
       </c>
       <c r="I281" t="n">
         <v>11</v>
@@ -21059,10 +20515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:36:43</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44247.60883101852</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21130,10 +20584,8 @@
           <t>4154200984</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:35:55</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44247.60827546296</v>
       </c>
       <c r="I283" t="n">
         <v>15</v>
@@ -21193,10 +20645,8 @@
           <t>4154165845</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:35:13</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44247.60778935185</v>
       </c>
       <c r="I284" t="n">
         <v>3</v>
@@ -21264,10 +20714,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:33:37</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44247.60667824074</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21343,10 +20791,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:32:33</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44247.6059375</v>
       </c>
       <c r="I286" t="n">
         <v>2</v>
@@ -21414,10 +20860,8 @@
           <t>4154185290</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:32:22</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44247.60581018519</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21485,10 +20929,8 @@
           <t>4154185074</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:32:14</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44247.6057175926</v>
       </c>
       <c r="I288" t="n">
         <v>9</v>
@@ -21552,10 +20994,8 @@
           <t>4154165845</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:32:14</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44247.6057175926</v>
       </c>
       <c r="I289" t="n">
         <v>4</v>
@@ -21623,10 +21063,8 @@
           <t>4154175388</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:32:13</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44247.60570601852</v>
       </c>
       <c r="I290" t="n">
         <v>3</v>
@@ -21690,10 +21128,8 @@
           <t>4154072277</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:31:18</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44247.60506944444</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21769,10 +21205,8 @@
           <t>4154165845</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:31:10</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44247.60497685185</v>
       </c>
       <c r="I292" t="n">
         <v>3</v>
@@ -21840,10 +21274,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:30:29</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44247.60450231482</v>
       </c>
       <c r="I293" t="n">
         <v>257</v>
@@ -21915,10 +21347,8 @@
           <t>4154165845</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:30:25</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44247.60445601852</v>
       </c>
       <c r="I294" t="n">
         <v>10</v>
@@ -21990,10 +21420,8 @@
           <t>4154148769</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:28:47</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44247.60332175926</v>
       </c>
       <c r="I295" t="n">
         <v>2</v>
@@ -22061,10 +21489,8 @@
           <t>4154074591</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:28:15</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44247.60295138889</v>
       </c>
       <c r="I296" t="n">
         <v>23</v>
@@ -22132,10 +21558,8 @@
           <t>4154148769</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:28:07</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44247.60285879629</v>
       </c>
       <c r="I297" t="n">
         <v>23</v>
@@ -22211,10 +21635,8 @@
           <t>4154156290</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:26:45</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44247.60190972222</v>
       </c>
       <c r="I298" t="n">
         <v>1</v>
@@ -22282,10 +21704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:24:44</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44247.60050925926</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22363,10 +21783,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:24:09</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44247.60010416667</v>
       </c>
       <c r="I300" t="n">
         <v>561</v>
@@ -22426,10 +21844,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:23:30</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44247.59965277778</v>
       </c>
       <c r="I301" t="n">
         <v>2</v>
@@ -22512,10 +21928,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:22:53</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44247.59922453704</v>
       </c>
       <c r="I302" t="n">
         <v>61</v>
@@ -22587,10 +22001,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:21:10</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44247.5980324074</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22650,10 +22062,8 @@
           <t>4154121768</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:20:38</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44247.59766203703</v>
       </c>
       <c r="I304" t="n">
         <v>1</v>
@@ -22725,10 +22135,8 @@
           <t>4154120796</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:20:02</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44247.59724537037</v>
       </c>
       <c r="I305" t="n">
         <v>43</v>
@@ -22788,10 +22196,8 @@
           <t>4154120743</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:19:59</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44247.59721064815</v>
       </c>
       <c r="I306" t="n">
         <v>4</v>
@@ -22867,10 +22273,8 @@
           <t>4154104620</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:19:18</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44247.59673611111</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22949,10 +22353,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:19:17</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44247.59672453703</v>
       </c>
       <c r="I308" t="n">
         <v>375</v>
@@ -23021,10 +22423,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:18:36</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44247.59625</v>
       </c>
       <c r="I309" t="n">
         <v>31</v>
@@ -23098,10 +22498,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:17:04</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44247.59518518519</v>
       </c>
       <c r="I310" t="n">
         <v>15</v>
@@ -23173,10 +22571,8 @@
           <t>4154089760</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:16:14</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44247.59460648148</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23244,10 +22640,8 @@
           <t>4154087826</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:15:04</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44247.5937962963</v>
       </c>
       <c r="I312" t="n">
         <v>107</v>
@@ -23315,10 +22709,8 @@
           <t>4154087686</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:14:59</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44247.59373842592</v>
       </c>
       <c r="I313" t="n">
         <v>2</v>
@@ -23397,10 +22789,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:14:55</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44247.59369212963</v>
       </c>
       <c r="I314" t="n">
         <v>473</v>
@@ -23480,10 +22870,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:14:45</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44247.59357638889</v>
       </c>
       <c r="I315" t="n">
         <v>47</v>
@@ -23559,10 +22947,8 @@
           <t>4154069754</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:14:06</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44247.593125</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23647,10 +23033,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:13:12</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44247.5925</v>
       </c>
       <c r="I317" t="n">
         <v>50</v>
@@ -23722,10 +23106,8 @@
           <t>4154074591</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:13:04</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44247.59240740741</v>
       </c>
       <c r="I318" t="n">
         <v>2</v>
@@ -23789,10 +23171,8 @@
           <t>4154073624</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:12:28</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44247.59199074074</v>
       </c>
       <c r="I319" t="n">
         <v>21</v>
@@ -23868,10 +23248,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:11:40</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44247.59143518518</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23943,10 +23321,8 @@
           <t>4154072277</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:11:38</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44247.59141203704</v>
       </c>
       <c r="I321" t="n">
         <v>8</v>
@@ -24022,10 +23398,8 @@
           <t>4154071564</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:11:10</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44247.59108796297</v>
       </c>
       <c r="I322" t="n">
         <v>1</v>
@@ -24093,10 +23467,8 @@
           <t>4154069754</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:11:02</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44247.59099537037</v>
       </c>
       <c r="I323" t="n">
         <v>46</v>
@@ -24160,10 +23532,8 @@
           <t>4154056795</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:10:59</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44247.59096064815</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24243,10 +23613,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:10:46</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44247.59081018518</v>
       </c>
       <c r="I325" t="n">
         <v>11</v>
@@ -24323,10 +23691,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:10:27</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44247.59059027778</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24390,10 +23756,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:09:13</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44247.5897337963</v>
       </c>
       <c r="I327" t="n">
         <v>3</v>
@@ -24476,10 +23840,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:09:08</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44247.58967592593</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24555,10 +23917,8 @@
           <t>4154047667</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:08:54</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44247.58951388889</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24642,10 +24002,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:08:26</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44247.58918981482</v>
       </c>
       <c r="I330" t="n">
         <v>11</v>
@@ -24717,10 +24075,8 @@
           <t>4154056795</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:08:14</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44247.58905092593</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24784,10 +24140,8 @@
           <t>4154056784</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:08:14</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44247.58905092593</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24859,10 +24213,8 @@
           <t>4154049852</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:07:33</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44247.58857638889</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24926,10 +24278,8 @@
           <t>4154053491</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:07:22</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44247.58844907407</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24997,10 +24347,8 @@
           <t>4154044699</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:07:02</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44247.58821759259</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -25076,10 +24424,8 @@
           <t>4154044603</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:06:58</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44247.58817129629</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -25155,10 +24501,8 @@
           <t>4154048378</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:06:43</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44247.58799768519</v>
       </c>
       <c r="I337" t="n">
         <v>1</v>
@@ -25222,10 +24566,8 @@
           <t>4154048235</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:06:39</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44247.58795138889</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25293,10 +24635,8 @@
           <t>4154048197</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:06:37</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44247.58792824074</v>
       </c>
       <c r="I339" t="n">
         <v>9</v>
@@ -25368,10 +24708,8 @@
           <t>4154047170</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:06:01</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44247.58751157407</v>
       </c>
       <c r="I340" t="n">
         <v>2</v>
@@ -25435,10 +24773,8 @@
           <t>4154046871</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:05:52</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44247.58740740741</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25510,10 +24846,8 @@
           <t>4154046485</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:05:38</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44247.58724537037</v>
       </c>
       <c r="I342" t="n">
         <v>1</v>
@@ -25593,10 +24927,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:05:28</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44247.58712962963</v>
       </c>
       <c r="I343" t="n">
         <v>1340</v>
@@ -25668,10 +25000,8 @@
           <t>4154045567</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:05:07</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44247.58688657408</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25743,10 +25073,8 @@
           <t>4154033966</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:04:14</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44247.58627314815</v>
       </c>
       <c r="I345" t="n">
         <v>4</v>
@@ -25822,10 +25150,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:04:12</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44247.58625</v>
       </c>
       <c r="I346" t="n">
         <v>1</v>
@@ -25897,10 +25223,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:03:23</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44247.58568287037</v>
       </c>
       <c r="I347" t="n">
         <v>112</v>
@@ -25976,10 +25300,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:03:16</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44247.58560185185</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -26050,10 +25372,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:02:54</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44247.58534722222</v>
       </c>
       <c r="I349" t="n">
         <v>164</v>
@@ -26121,10 +25441,8 @@
           <t>4154031525</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:02:50</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44247.58530092592</v>
       </c>
       <c r="I350" t="n">
         <v>2</v>
@@ -26188,10 +25506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:02:31</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44247.58508101852</v>
       </c>
       <c r="I351" t="n">
         <v>4</v>
@@ -26259,10 +25575,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:02:29</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44247.58505787037</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26340,10 +25654,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:02:18</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44247.58493055555</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26419,10 +25731,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:02:00</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44247.58472222222</v>
       </c>
       <c r="I354" t="n">
         <v>188</v>
@@ -26491,10 +25801,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:01:56</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44247.58467592593</v>
       </c>
       <c r="I355" t="n">
         <v>8</v>
@@ -26562,10 +25870,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:01:50</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44247.58460648148</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26629,10 +25935,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:01:25</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44247.58431712963</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26697,10 +26001,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:01:23</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44247.58429398148</v>
       </c>
       <c r="I358" t="n">
         <v>1104</v>
@@ -26776,10 +26078,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:01:21</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44247.58427083334</v>
       </c>
       <c r="I359" t="n">
         <v>3</v>
@@ -26839,10 +26139,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:01:14</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44247.58418981481</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26914,10 +26212,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:01:03</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44247.5840625</v>
       </c>
       <c r="I361" t="n">
         <v>3</v>
@@ -26991,10 +26287,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:01:03</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44247.5840625</v>
       </c>
       <c r="I362" t="n">
         <v>80</v>
@@ -27070,10 +26364,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:00:58</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44247.58400462963</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -27145,10 +26437,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:00:52</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44247.58393518518</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -27212,10 +26502,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:00:51</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44247.58392361111</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27279,10 +26567,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:00:46</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44247.58386574074</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27358,10 +26644,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:00:45</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44247.58385416667</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27433,10 +26717,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-02-20 14:00:28</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44247.58365740741</v>
       </c>
       <c r="I368" t="n">
         <v>1</v>
